--- a/Ex1_2.2&3_withDamping.xlsx
+++ b/Ex1_2.2&3_withDamping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\OneDrive\ETH\Physically-based Simulations in CG\Exercises\Ex1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\OneDrive\ETH\Physically-based Simulations in CG\Exercises\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>step</t>
   </si>
@@ -538,27 +538,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="3.625" customWidth="1"/>
-    <col min="8" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="3.625" customWidth="1"/>
-    <col min="14" max="20" width="15.625" customWidth="1"/>
+    <col min="1" max="6" width="15.59765625" customWidth="1"/>
+    <col min="7" max="7" width="3.59765625" customWidth="1"/>
+    <col min="8" max="12" width="15.59765625" customWidth="1"/>
+    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="14" max="20" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:17" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -628,40 +628,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="B6" s="1">
-        <v>-1.5653500000000001E-2</v>
+        <v>-2.6089099999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>-1.5653500000000001E-2</v>
+        <v>-2.6089099999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-1.5279600000000001E-2</v>
+        <v>7.7748499999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>-1.4892600000000001E-2</v>
+        <v>0.69206000000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>-1.1211199999999999E-2</v>
+        <v>1.0915600000000001</v>
       </c>
       <c r="H6" s="1">
         <f>ABS(B6-F6)</f>
-        <v>4.4423000000000015E-3</v>
+        <v>3.7004700000000001</v>
       </c>
       <c r="I6" s="1">
         <f>ABS(C6-F6)</f>
-        <v>4.4423000000000015E-3</v>
+        <v>3.7004700000000001</v>
       </c>
       <c r="J6" s="1">
         <f>ABS(D6-F6)</f>
-        <v>4.0684000000000015E-3</v>
+        <v>6.6832899999999995</v>
       </c>
       <c r="K6" s="1">
         <f>ABS(E6-F6)</f>
-        <v>3.6814000000000013E-3</v>
+        <v>0.39950000000000008</v>
       </c>
       <c r="L6" s="1">
         <f>ABS(F6-F6)</f>
@@ -669,55 +669,55 @@
       </c>
       <c r="N6">
         <f>IF(H7=0,"",H6/H7)</f>
-        <v>1.0617351816443596</v>
+        <v>1.4993496890257492</v>
       </c>
       <c r="O6">
         <f t="shared" ref="O6:Q14" si="0">IF(I7=0,"",I6/I7)</f>
-        <v>1.0617351816443596</v>
+        <v>1.4993496890257492</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0.99458751167327575</v>
+        <v>52.258112440378419</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0.9214096210642243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.63039564230136236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>1.5E-3</v>
+        <v>0.25</v>
       </c>
       <c r="B7" s="1">
-        <v>-7.8267300000000005E-3</v>
+        <v>-1.3044500000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>-7.8267300000000005E-3</v>
+        <v>-1.3044500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-7.7332700000000004E-3</v>
+        <v>1.29149</v>
       </c>
       <c r="E7" s="1">
-        <v>-7.6381299999999999E-3</v>
+        <v>0.52987099999999998</v>
       </c>
       <c r="F7" s="1">
-        <v>-3.6427299999999998E-3</v>
+        <v>1.1636</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H15" si="1">ABS(B7-F7)</f>
-        <v>4.1840000000000002E-3</v>
+        <v>2.4680499999999999</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ref="I7:I15" si="2">ABS(C7-F7)</f>
-        <v>4.1840000000000002E-3</v>
+        <v>2.4680499999999999</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J15" si="3">ABS(D7-F7)</f>
-        <v>4.0905400000000001E-3</v>
+        <v>0.12789000000000006</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ref="K7:K15" si="4">ABS(E7-F7)</f>
-        <v>3.9953999999999996E-3</v>
+        <v>0.63372899999999999</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L15" si="5">ABS(F7-F7)</f>
@@ -725,55 +725,55 @@
       </c>
       <c r="N7">
         <f t="shared" ref="N7:N14" si="6">IF(H8=0,"",H7/H8)</f>
-        <v>1.0142145170360888</v>
+        <v>3.413942518838204</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>1.0142145170360888</v>
+        <v>3.413942518838204</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0.99720624085811804</v>
+        <v>1.7294669579718844</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0.97964407785367846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.5823631661508459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>7.5000000000000002E-4</v>
+        <v>0.125</v>
       </c>
       <c r="B8" s="1">
-        <v>-3.9133600000000003E-3</v>
+        <v>-0.652227</v>
       </c>
       <c r="C8" s="1">
-        <v>-3.9133600000000003E-3</v>
+        <v>-0.652227</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.8899999999999998E-3</v>
+        <v>-3.2421400000000001E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>-3.8664200000000002E-3</v>
+        <v>0.24760799999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>2.12E-4</v>
+        <v>7.0705500000000004E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>4.1253600000000007E-3</v>
+        <v>0.72293249999999998</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>4.1253600000000007E-3</v>
+        <v>0.72293249999999998</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>4.1019999999999997E-3</v>
+        <v>7.3947640000000009E-2</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>4.0784200000000001E-3</v>
+        <v>0.17690249999999999</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="5"/>
@@ -781,55 +781,55 @@
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>1.0028661235860823</v>
+        <v>4.0173852882173477</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>1.0028661235860823</v>
+        <v>4.0173852882173477</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0.99860506897970414</v>
+        <v>4.1768888386805187</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0.99428551925224173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.2323974815139507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>3.8000000000000002E-4</v>
+        <v>6.25E-2</v>
       </c>
       <c r="B9" s="1">
-        <v>-1.9566800000000001E-3</v>
+        <v>-0.32611400000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>-1.9566800000000001E-3</v>
+        <v>-0.32611400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.9508399999999999E-3</v>
+        <v>-0.16386700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.9449700000000001E-3</v>
+        <v>-2.61962E-3</v>
       </c>
       <c r="F9" s="1">
-        <v>2.1568899999999998E-3</v>
+        <v>-0.14616299999999999</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>4.1135700000000004E-3</v>
+        <v>0.17995100000000003</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>4.1135700000000004E-3</v>
+        <v>0.17995100000000003</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>4.1077299999999995E-3</v>
+        <v>1.7704000000000025E-2</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>4.1018599999999997E-3</v>
+        <v>0.14354338</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="5"/>
@@ -837,55 +837,55 @@
       </c>
       <c r="N9">
         <f t="shared" si="6"/>
-        <v>1.0003694020331946</v>
+        <v>3.8883943041120168</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>1.0003694020331946</v>
+        <v>3.8883943041120168</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0.99930399302679329</v>
+        <v>3.0967290536994971</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0.99823149783396814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.4272632202240527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>1.9000000000000001E-4</v>
+        <v>3.125E-2</v>
       </c>
       <c r="B10" s="1">
-        <v>-9.7834099999999998E-4</v>
+        <v>-0.16305700000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>-9.7834099999999998E-4</v>
+        <v>-0.16305700000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-9.7688099999999997E-4</v>
+        <v>-0.12249500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>-9.7541700000000002E-4</v>
+        <v>-7.4895199999999995E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>3.1337100000000001E-3</v>
+        <v>-0.11677800000000001</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>4.1120510000000002E-3</v>
+        <v>4.6279000000000001E-2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>4.1120510000000002E-3</v>
+        <v>4.6279000000000001E-2</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>4.1105910000000002E-3</v>
+        <v>5.7169999999999999E-3</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>4.1091269999999997E-3</v>
+        <v>4.1882800000000012E-2</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="5"/>
@@ -893,55 +893,55 @@
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>0.99991999766558548</v>
+        <v>3.2422794529761245</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>0.99991999766558548</v>
+        <v>3.2422794529761245</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>0.99965369776131652</v>
+        <v>1.3831897803154976</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>0.99938637773156769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.6341794799359679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>9.0000000000000006E-5</v>
+        <v>1.5630000000000002E-2</v>
       </c>
       <c r="B11" s="1">
-        <v>-4.8917000000000003E-4</v>
+        <v>-8.1528400000000001E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>-4.8917000000000003E-4</v>
+        <v>-8.1528400000000001E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>-4.8880500000000003E-4</v>
+        <v>-7.1387999999999993E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>-4.8844000000000003E-4</v>
+        <v>-5.9821100000000002E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>3.62321E-3</v>
+        <v>-6.7254800000000003E-2</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>4.1123799999999997E-3</v>
+        <v>1.4273599999999997E-2</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="2"/>
-        <v>4.1123799999999997E-3</v>
+        <v>1.4273599999999997E-2</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>4.1120150000000001E-3</v>
+        <v>4.1331999999999897E-3</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>4.1116499999999997E-3</v>
+        <v>7.4337000000000014E-3</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="5"/>
@@ -949,55 +949,55 @@
       </c>
       <c r="N11">
         <f t="shared" si="6"/>
-        <v>0.99989423302531233</v>
+        <v>2.1767495768075262</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>0.99989423302531233</v>
+        <v>2.1767495768075262</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>0.99982760817404726</v>
+        <v>1.0275968375515852</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>0.99976098037437322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.8317251117909938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>5.0000000000000002E-5</v>
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="B12" s="1">
-        <v>-2.4458500000000002E-4</v>
+        <v>-4.07642E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>-2.4458500000000002E-4</v>
+        <v>-4.07642E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>-2.4449399999999999E-4</v>
+        <v>-3.8229100000000002E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>-2.4440300000000002E-4</v>
+        <v>-3.5481600000000002E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>3.8682299999999998E-3</v>
+        <v>-3.4206899999999998E-2</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>4.1128149999999997E-3</v>
+        <v>6.557300000000002E-3</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>4.1128149999999997E-3</v>
+        <v>6.557300000000002E-3</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>4.1127239999999999E-3</v>
+        <v>4.0222000000000036E-3</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>4.1126330000000001E-3</v>
+        <v>1.2747000000000036E-3</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="5"/>
@@ -1005,55 +1005,55 @@
       </c>
       <c r="N12">
         <f t="shared" si="6"/>
-        <v>0.99992997987164434</v>
+        <v>1.3981449893390197</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>0.99992997987164434</v>
+        <v>1.3981449893390197</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>0.99991344685734296</v>
+        <v>0.99161777032690801</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0.99989691365813804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.37559667629206317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>3.9100000000000003E-3</v>
       </c>
       <c r="B13" s="1">
-        <v>-1.2229299999999999E-4</v>
+        <v>-2.03821E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>-1.2229299999999999E-4</v>
+        <v>-2.03821E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>-1.2227000000000001E-4</v>
+        <v>-1.97483E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>-1.22247E-4</v>
+        <v>-1.9085899999999999E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>3.99081E-3</v>
+        <v>-1.56921E-2</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>4.1131029999999999E-3</v>
+        <v>4.6899999999999997E-3</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>4.1131029999999999E-3</v>
+        <v>4.6899999999999997E-3</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>4.1130799999999999E-3</v>
+        <v>4.0561999999999994E-3</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="4"/>
-        <v>4.1130569999999998E-3</v>
+        <v>3.3937999999999989E-3</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="5"/>
@@ -1061,55 +1061,55 @@
       </c>
       <c r="N13">
         <f t="shared" si="6"/>
-        <v>0.99996029919093721</v>
+        <v>1.1055844982437941</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>0.99996029919093721</v>
+        <v>1.1055844982437941</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>0.99995609322686729</v>
+        <v>0.99326591081617166</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>0.99995188725114015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.86542090392598847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>1.9499999999999999E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>-6.1146299999999994E-5</v>
+        <v>-1.0191E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>-6.1146299999999994E-5</v>
+        <v>-1.0191E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>-6.1140600000000002E-5</v>
+        <v>-1.0032599999999999E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>-6.1134899999999996E-5</v>
+        <v>-9.8704599999999993E-3</v>
       </c>
       <c r="F14" s="1">
-        <v>4.0521200000000002E-3</v>
+        <v>-5.9489E-3</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>4.1132663000000005E-3</v>
+        <v>4.2421000000000004E-3</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>4.1132663000000005E-3</v>
+        <v>4.2421000000000004E-3</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>4.1132605999999999E-3</v>
+        <v>4.0836999999999991E-3</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>4.1132549000000001E-3</v>
+        <v>3.9215599999999993E-3</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
@@ -1117,62 +1117,62 @@
       </c>
       <c r="N14">
         <f t="shared" si="6"/>
-        <v>0.99997889799443673</v>
+        <v>1.0251228934366132</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>0.99997889799443673</v>
+        <v>1.0251228934366132</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>0.99997785261104699</v>
+        <v>0.99638211572545032</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>0.99997680722694582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.96627085033490612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="B15" s="1">
-        <v>-3.05731E-5</v>
+        <v>-5.0955200000000001E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>-3.05731E-5</v>
+        <v>-5.0955200000000001E-3</v>
       </c>
       <c r="D15" s="1">
-        <v>-3.0571699999999997E-5</v>
+        <v>-5.0559100000000003E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>-3.0570300000000001E-5</v>
+        <v>-5.0158299999999998E-3</v>
       </c>
       <c r="F15" s="1">
-        <v>4.0827800000000003E-3</v>
+        <v>-9.57382E-4</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>4.1133531000000006E-3</v>
+        <v>4.1381380000000004E-3</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>4.1133531000000006E-3</v>
+        <v>4.1381380000000004E-3</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>4.1133517000000001E-3</v>
+        <v>4.0985280000000006E-3</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="4"/>
-        <v>4.1133503000000005E-3</v>
+        <v>4.0584480000000001E-3</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1191,7 +1191,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1205,22 +1205,22 @@
       <c r="L17" s="1"/>
       <c r="N17">
         <f>AVERAGE(N6:N14)</f>
-        <v>1.0087631813386269</v>
+        <v>2.4185503567773776</v>
       </c>
       <c r="O17">
         <f t="shared" ref="O17:Q17" si="7">AVERAGE(O6:O14)</f>
-        <v>1.0087631813386269</v>
+        <v>2.4185503567773776</v>
       </c>
       <c r="P17">
         <f t="shared" si="7"/>
-        <v>0.99878127924094584</v>
+        <v>7.4059166339406595</v>
       </c>
       <c r="Q17">
         <f t="shared" si="7"/>
-        <v>0.98806040913847526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.5050680591633476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1290,40 +1290,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="B21" s="1">
-        <v>-2.4764499999999998E-3</v>
+        <v>-0.412742</v>
       </c>
       <c r="C21" s="1">
-        <v>-2.5234099999999998E-3</v>
+        <v>-1.7172000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-2.49993E-3</v>
+        <v>-1.06497</v>
       </c>
       <c r="E21" s="1">
-        <v>-2.5211299999999999E-3</v>
+        <v>-6.6711400000000004E-2</v>
       </c>
       <c r="F21" s="1">
-        <v>-2.33993E-3</v>
+        <v>3.8270199999999997E-2</v>
       </c>
       <c r="H21" s="1">
         <f>ABS(B21-F21)</f>
-        <v>1.3651999999999978E-4</v>
+        <v>0.45101219999999997</v>
       </c>
       <c r="I21" s="1">
         <f>ABS(C21-F21)</f>
-        <v>1.8347999999999975E-4</v>
+        <v>1.7554702</v>
       </c>
       <c r="J21" s="1">
         <f>ABS(D21-F21)</f>
-        <v>1.5999999999999999E-4</v>
+        <v>1.1032401999999999</v>
       </c>
       <c r="K21" s="1">
         <f>ABS(E21-F21)</f>
-        <v>1.8119999999999985E-4</v>
+        <v>0.10498160000000001</v>
       </c>
       <c r="L21" s="1">
         <f>ABS(F21-F21)</f>
@@ -1331,55 +1331,55 @@
       </c>
       <c r="N21">
         <f>IF(H22=0,"",H21/H22)</f>
-        <v>0.92443120260021605</v>
+        <v>7.1675704023901838</v>
       </c>
       <c r="O21">
         <f t="shared" ref="O21:O29" si="8">IF(I22=0,"",I21/I22)</f>
-        <v>1.1509220925856216</v>
+        <v>4.5123476687307384</v>
       </c>
       <c r="P21">
         <f t="shared" ref="P21:P29" si="9">IF(J22=0,"",J21/J22)</f>
-        <v>1.0420058612829701</v>
+        <v>4.8820042392944538</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q29" si="10">IF(K22=0,"",K21/K22)</f>
-        <v>1.1386200829458337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.5095687484632054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <v>1.5E-3</v>
+        <v>0.25</v>
       </c>
       <c r="B22" s="1">
-        <v>-1.2382199999999999E-3</v>
+        <v>-0.206371</v>
       </c>
       <c r="C22" s="1">
-        <v>-1.24996E-3</v>
+        <v>-0.53248399999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-1.24409E-3</v>
+        <v>-0.36942799999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>-1.24968E-3</v>
+        <v>-7.3902899999999994E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>-1.0905400000000001E-3</v>
+        <v>-0.14344699999999999</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ref="H22:H30" si="11">ABS(B22-F22)</f>
-        <v>1.4767999999999986E-4</v>
+        <v>6.2924000000000008E-2</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ref="I22:I30" si="12">ABS(C22-F22)</f>
-        <v>1.5941999999999996E-4</v>
+        <v>0.38903699999999997</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ref="J22:J30" si="13">ABS(D22-F22)</f>
-        <v>1.5354999999999991E-4</v>
+        <v>0.22598099999999999</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ref="K22:K30" si="14">ABS(E22-F22)</f>
-        <v>1.5913999999999989E-4</v>
+        <v>6.9544099999999998E-2</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ref="L22:L30" si="15">ABS(F22-F22)</f>
@@ -1387,55 +1387,55 @@
       </c>
       <c r="N22">
         <f t="shared" ref="N22:N29" si="16">IF(H23=0,"",H22/H23)</f>
-        <v>0.99131392054989353</v>
+        <v>6.0655484866011227</v>
       </c>
       <c r="O22">
         <f t="shared" si="8"/>
-        <v>1.0494440750712593</v>
+        <v>5.4674583655400184</v>
       </c>
       <c r="P22">
         <f t="shared" si="9"/>
-        <v>1.0206591244466299</v>
+        <v>7.4357869105985319</v>
       </c>
       <c r="Q22">
         <f t="shared" si="10"/>
-        <v>1.0478422903196061</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.6828741234034936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <v>7.5000000000000002E-4</v>
+        <v>0.125</v>
       </c>
       <c r="B23" s="1">
-        <v>-6.19112E-4</v>
+        <v>-0.103185</v>
       </c>
       <c r="C23" s="1">
-        <v>-6.2204700000000003E-4</v>
+        <v>-0.18471399999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-6.2058000000000002E-4</v>
+        <v>-0.14394999999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>-6.2201200000000002E-4</v>
+        <v>-7.2234400000000004E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>-4.7013799999999999E-4</v>
+        <v>-0.11355899999999999</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="11"/>
-        <v>1.4897400000000001E-4</v>
+        <v>1.0373999999999994E-2</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="12"/>
-        <v>1.5190900000000004E-4</v>
+        <v>7.1154999999999996E-2</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="13"/>
-        <v>1.5044200000000003E-4</v>
+        <v>3.0391000000000001E-2</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="14"/>
-        <v>1.5187400000000003E-4</v>
+        <v>4.1324599999999989E-2</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="15"/>
@@ -1443,55 +1443,55 @@
       </c>
       <c r="N23">
         <f t="shared" si="16"/>
-        <v>1.0029892950919008</v>
+        <v>1.6746033027167491</v>
       </c>
       <c r="O23">
         <f t="shared" si="8"/>
-        <v>1.0177202808446781</v>
+        <v>5.0154364497575266</v>
       </c>
       <c r="P23">
         <f t="shared" si="9"/>
-        <v>1.0103763003955759</v>
+        <v>7.6051650359100211</v>
       </c>
       <c r="Q23">
         <f t="shared" si="10"/>
-        <v>1.0175130644512933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.851803952778881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>3.8000000000000002E-4</v>
+        <v>6.25E-2</v>
       </c>
       <c r="B24" s="1">
-        <v>-3.09556E-4</v>
+        <v>-5.1592699999999998E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>-3.1029000000000001E-4</v>
+        <v>-7.1974800000000005E-2</v>
       </c>
       <c r="D24" s="1">
-        <v>-3.0992299999999998E-4</v>
+        <v>-6.1783699999999997E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>-3.10286E-4</v>
+        <v>-5.1756400000000001E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>-1.6102600000000001E-4</v>
+        <v>-5.7787600000000001E-2</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="11"/>
-        <v>1.4852999999999999E-4</v>
+        <v>6.1949000000000032E-3</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="12"/>
-        <v>1.49264E-4</v>
+        <v>1.4187200000000004E-2</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="13"/>
-        <v>1.4889699999999997E-4</v>
+        <v>3.9960999999999955E-3</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="14"/>
-        <v>1.4925999999999999E-4</v>
+        <v>6.0312000000000004E-3</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="15"/>
@@ -1499,55 +1499,55 @@
       </c>
       <c r="N24">
         <f t="shared" si="16"/>
-        <v>1.0033507849583443</v>
+        <v>3.365878837272485</v>
       </c>
       <c r="O24">
         <f t="shared" si="8"/>
-        <v>1.0070573763761574</v>
+        <v>4.358452889312157</v>
       </c>
       <c r="P24">
         <f t="shared" si="9"/>
-        <v>1.0052052317362037</v>
+        <v>5.6497949950515904</v>
       </c>
       <c r="Q24">
         <f t="shared" si="10"/>
-        <v>1.0070371833940472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>12.06239999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>1.9000000000000001E-4</v>
+        <v>3.125E-2</v>
       </c>
       <c r="B25" s="1">
-        <v>-1.54778E-4</v>
+        <v>-2.5796300000000001E-2</v>
       </c>
       <c r="C25" s="1">
-        <v>-1.54962E-4</v>
+        <v>-3.08919E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>-1.5487000000000001E-4</v>
+        <v>-2.8344100000000001E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>-1.5496100000000001E-4</v>
+        <v>-2.81368E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>-6.7440299999999997E-6</v>
+        <v>-2.76368E-2</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="11"/>
-        <v>1.4803397E-4</v>
+        <v>1.8404999999999984E-3</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="12"/>
-        <v>1.4821796999999999E-4</v>
+        <v>3.2551000000000004E-3</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="13"/>
-        <v>1.4812597000000001E-4</v>
+        <v>7.0730000000000098E-4</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="14"/>
-        <v>1.4821697000000001E-4</v>
+        <v>5.0000000000000044E-4</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="15"/>
@@ -1555,55 +1555,55 @@
       </c>
       <c r="N25">
         <f t="shared" si="16"/>
-        <v>1.002143757027782</v>
+        <v>4.9290305302624562</v>
       </c>
       <c r="O25">
         <f t="shared" si="8"/>
-        <v>1.0030776945816009</v>
+        <v>3.614769572459744</v>
       </c>
       <c r="P25">
         <f t="shared" si="9"/>
-        <v>1.0026104590284439</v>
+        <v>2.6842504743833069</v>
       </c>
       <c r="Q25">
         <f t="shared" si="10"/>
-        <v>1.0030716058339328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.89078923926598941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>9.0000000000000006E-5</v>
+        <v>1.5630000000000002E-2</v>
       </c>
       <c r="B26" s="1">
-        <v>-7.7389000000000001E-5</v>
+        <v>-1.28982E-2</v>
       </c>
       <c r="C26" s="1">
-        <v>-7.74349E-5</v>
+        <v>-1.41721E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>-7.7411999999999997E-5</v>
+        <v>-1.35351E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>-7.7434800000000006E-5</v>
+        <v>-1.38329E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>7.0328300000000002E-5</v>
+        <v>-1.32716E-2</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="11"/>
-        <v>1.477173E-4</v>
+        <v>3.7339999999999943E-4</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="12"/>
-        <v>1.4776319999999999E-4</v>
+        <v>9.0050000000000026E-4</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="13"/>
-        <v>1.4774029999999999E-4</v>
+        <v>2.6349999999999985E-4</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="14"/>
-        <v>1.4776310000000001E-4</v>
+        <v>5.6130000000000069E-4</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="15"/>
@@ -1611,55 +1611,55 @@
       </c>
       <c r="N26">
         <f t="shared" si="16"/>
-        <v>1.0011915291629812</v>
+        <v>14.122541603630857</v>
       </c>
       <c r="O26">
         <f t="shared" si="8"/>
-        <v>1.0014245728653433</v>
+        <v>2.6108260125829972</v>
       </c>
       <c r="P26">
         <f t="shared" si="9"/>
-        <v>1.0013080551118183</v>
+        <v>1.4191845747832186</v>
       </c>
       <c r="Q26">
         <f t="shared" si="10"/>
-        <v>1.0014238951427623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.8485706758002922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>5.0000000000000002E-5</v>
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>-3.86945E-5</v>
+        <v>-6.4490900000000002E-3</v>
       </c>
       <c r="C27" s="1">
-        <v>-3.8705999999999998E-5</v>
+        <v>-6.7675599999999997E-3</v>
       </c>
       <c r="D27" s="1">
-        <v>-3.8700299999999999E-5</v>
+        <v>-6.60832E-3</v>
       </c>
       <c r="E27" s="1">
-        <v>-3.8705999999999998E-5</v>
+        <v>-6.7262900000000002E-3</v>
       </c>
       <c r="F27" s="1">
-        <v>1.08847E-4</v>
+        <v>-6.4226500000000002E-3</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="11"/>
-        <v>1.4754150000000001E-4</v>
+        <v>2.643999999999997E-5</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="12"/>
-        <v>1.47553E-4</v>
+        <v>3.4490999999999949E-4</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="13"/>
-        <v>1.4754729999999998E-4</v>
+        <v>1.8566999999999976E-4</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="14"/>
-        <v>1.47553E-4</v>
+        <v>3.0363999999999999E-4</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="15"/>
@@ -1667,55 +1667,55 @@
       </c>
       <c r="N27">
         <f t="shared" si="16"/>
-        <v>1.0006252996792795</v>
+        <v>0.21267696267696201</v>
       </c>
       <c r="O27">
         <f t="shared" si="8"/>
-        <v>1.0006842900168937</v>
+        <v>1.6912327155045568</v>
       </c>
       <c r="P27">
         <f t="shared" si="9"/>
-        <v>1.0006551342245238</v>
+        <v>1.1312374337415436</v>
       </c>
       <c r="Q27">
         <f t="shared" si="10"/>
-        <v>1.0006842900168937</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.5267497988736909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>3.9100000000000003E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>-1.93473E-5</v>
+        <v>-3.2245400000000001E-3</v>
       </c>
       <c r="C28" s="1">
-        <v>-1.93501E-5</v>
+        <v>-3.30416E-3</v>
       </c>
       <c r="D28" s="1">
-        <v>-1.93487E-5</v>
+        <v>-3.2643500000000001E-3</v>
       </c>
       <c r="E28" s="1">
-        <v>-1.93501E-5</v>
+        <v>-3.2991000000000001E-3</v>
       </c>
       <c r="F28" s="1">
-        <v>1.28102E-4</v>
+        <v>-3.1002199999999999E-3</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="11"/>
-        <v>1.4744930000000001E-4</v>
+        <v>1.2432000000000025E-4</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="12"/>
-        <v>1.4745209999999999E-4</v>
+        <v>2.0394000000000011E-4</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="13"/>
-        <v>1.474507E-4</v>
+        <v>1.6413000000000018E-4</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="14"/>
-        <v>1.4745209999999999E-4</v>
+        <v>1.9888000000000024E-4</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="15"/>
@@ -1723,55 +1723,55 @@
       </c>
       <c r="N28">
         <f t="shared" si="16"/>
-        <v>1.0003166157890127</v>
+        <v>0.85437426980963582</v>
       </c>
       <c r="O28">
         <f t="shared" si="8"/>
-        <v>1.0003307251836542</v>
+        <v>1.2328618063112078</v>
       </c>
       <c r="P28">
         <f t="shared" si="9"/>
-        <v>1.000323670503563</v>
+        <v>1.0557699729834049</v>
       </c>
       <c r="Q28">
         <f t="shared" si="10"/>
-        <v>1.0003307251836542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.2068693488682569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>1.9499999999999999E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>-9.6736300000000004E-6</v>
+        <v>-1.6122700000000001E-3</v>
       </c>
       <c r="C29" s="1">
-        <v>-9.67435E-6</v>
+        <v>-1.63218E-3</v>
       </c>
       <c r="D29" s="1">
-        <v>-9.6739900000000002E-6</v>
+        <v>-1.62222E-3</v>
       </c>
       <c r="E29" s="1">
-        <v>-9.67435E-6</v>
+        <v>-1.6315500000000001E-3</v>
       </c>
       <c r="F29" s="1">
-        <v>1.3772900000000001E-4</v>
+        <v>-1.4667599999999999E-3</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="11"/>
-        <v>1.4740263000000001E-4</v>
+        <v>1.4551000000000017E-4</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="12"/>
-        <v>1.4740335000000001E-4</v>
+        <v>1.6542000000000011E-4</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="13"/>
-        <v>1.4740299000000001E-4</v>
+        <v>1.5546000000000006E-4</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="14"/>
-        <v>1.4740335000000001E-4</v>
+        <v>1.6479000000000016E-4</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="15"/>
@@ -1779,55 +1779,55 @@
       </c>
       <c r="N29">
         <f t="shared" si="16"/>
-        <v>1.0001616243203484</v>
+        <v>0.97730524081698544</v>
       </c>
       <c r="O29">
         <f t="shared" si="8"/>
-        <v>1.0001652881458882</v>
+        <v>1.0750983004581947</v>
       </c>
       <c r="P29">
         <f t="shared" si="9"/>
-        <v>1.0001634562342372</v>
+        <v>1.0269723934283286</v>
       </c>
       <c r="Q29">
         <f t="shared" si="10"/>
-        <v>1.0001652881458882</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.0715470098252793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="B30" s="1">
-        <v>-4.8368099999999999E-6</v>
+        <v>-8.0613600000000005E-4</v>
       </c>
       <c r="C30" s="1">
-        <v>-4.8369899999999997E-6</v>
+        <v>-8.1111200000000001E-4</v>
       </c>
       <c r="D30" s="1">
-        <v>-4.8369000000000002E-6</v>
+        <v>-8.0862399999999997E-4</v>
       </c>
       <c r="E30" s="1">
-        <v>-4.8369899999999997E-6</v>
+        <v>-8.1103399999999997E-4</v>
       </c>
       <c r="F30" s="1">
-        <v>1.4254200000000001E-4</v>
+        <v>-6.5724700000000002E-4</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="11"/>
-        <v>1.4737881E-4</v>
+        <v>1.4888900000000003E-4</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="12"/>
-        <v>1.4737899000000001E-4</v>
+        <v>1.5386499999999999E-4</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="13"/>
-        <v>1.4737889999999999E-4</v>
+        <v>1.5137699999999996E-4</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="14"/>
-        <v>1.4737899000000001E-4</v>
+        <v>1.5378699999999996E-4</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="15"/>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H31" s="8" t="s">
         <v>11</v>
       </c>
@@ -1850,22 +1850,22 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H32" s="1">
         <f>(H21/ABS(F21))</f>
-        <v>5.8343625664015498E-2</v>
+        <v>11.784944944107949</v>
       </c>
       <c r="I32" s="1">
         <f>(I21/ABS(F21))</f>
-        <v>7.841260208638709E-2</v>
+        <v>45.870421372242639</v>
       </c>
       <c r="J32" s="1">
         <f>(J21/ABS(F21))</f>
-        <v>6.8378113875201388E-2</v>
+        <v>28.827657028183808</v>
       </c>
       <c r="K32" s="1">
         <f>(K21/ABS(F21))</f>
-        <v>7.7438213963665514E-2</v>
+        <v>2.7431683137271303</v>
       </c>
       <c r="L32" s="1">
         <f>(L21/ABS(F21))</f>
@@ -1873,220 +1873,220 @@
       </c>
       <c r="N32">
         <f>AVERAGE(N21:N29)</f>
-        <v>0.99183600324219534</v>
+        <v>4.3743921817974929</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32:Q32" si="17">AVERAGE(O21:O29)</f>
-        <v>1.0256473772967885</v>
+        <v>3.286498197850793</v>
       </c>
       <c r="P32">
         <f t="shared" si="17"/>
-        <v>1.009256365884885</v>
+        <v>3.6544628922416007</v>
       </c>
       <c r="Q32">
         <f t="shared" si="17"/>
-        <v>1.024076491714879</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.1834636552532309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H33" s="1">
         <f t="shared" ref="H33:H41" si="18">(H22/ABS(F22))</f>
-        <v>0.13541915014579919</v>
+        <v>0.43865678613006903</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" ref="I33:I41" si="19">(I22/ABS(F22))</f>
-        <v>0.14618445907532043</v>
+        <v>2.7120609005416636</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" ref="J33:J41" si="20">(J22/ABS(F22))</f>
-        <v>0.1408018046105598</v>
+        <v>1.575362328943791</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" ref="K33:K41" si="21">(K22/ABS(F22))</f>
-        <v>0.14592770554037438</v>
+        <v>0.48480693217704102</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ref="L33:L41" si="22">(L22/ABS(F22))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H34" s="1">
         <f t="shared" si="18"/>
-        <v>0.3168729181644539</v>
+        <v>9.1353393390220014E-2</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="19"/>
-        <v>0.32311576600912933</v>
+        <v>0.62659058286881708</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="20"/>
-        <v>0.319995405604312</v>
+        <v>0.26762299773685927</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="21"/>
-        <v>0.32304131978270217</v>
+        <v>0.36390422599705874</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H35" s="1">
         <f t="shared" si="18"/>
-        <v>0.92239762522822388</v>
+        <v>0.1072011988731147</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="19"/>
-        <v>0.92695589532125244</v>
+        <v>0.2455059562951222</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="20"/>
-        <v>0.924676760274738</v>
+        <v>6.9151513473478657E-2</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="21"/>
-        <v>0.92693105461229852</v>
+        <v>0.10436841121624708</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H36" s="1">
         <f t="shared" si="18"/>
-        <v>21.950372403444231</v>
+        <v>6.6595987958084815E-2</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="19"/>
-        <v>21.977655793346116</v>
+        <v>0.11778136397846352</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="20"/>
-        <v>21.964014098395175</v>
+        <v>2.5592688010189348E-2</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="21"/>
-        <v>21.977507514053173</v>
+        <v>1.8091819602848391E-2</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H37" s="1">
         <f t="shared" si="18"/>
-        <v>2.1003962842838515</v>
+        <v>2.8135266282889738E-2</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="19"/>
-        <v>2.1010489376253938</v>
+        <v>6.7851653154103519E-2</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="20"/>
-        <v>2.1007233219059751</v>
+        <v>1.9854425992344545E-2</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="21"/>
-        <v>2.1010475157226893</v>
+        <v>4.229331806263003E-2</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H38" s="1">
         <f t="shared" si="18"/>
-        <v>1.3554944095840953</v>
+        <v>4.1166808093232501E-3</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="19"/>
-        <v>1.3556000624730127</v>
+        <v>5.3702132297416091E-2</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="20"/>
-        <v>1.3555476953889403</v>
+        <v>2.8908628058511635E-2</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="21"/>
-        <v>1.3556000624730127</v>
+        <v>4.7276435739141941E-2</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H39" s="1">
         <f t="shared" si="18"/>
-        <v>1.1510304288769888</v>
+        <v>4.0100379973034256E-2</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="19"/>
-        <v>1.1510522864592276</v>
+        <v>6.5782428343794996E-2</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="20"/>
-        <v>1.1510413576681082</v>
+        <v>5.2941404158414626E-2</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="21"/>
-        <v>1.1510522864592276</v>
+        <v>6.4150286108727847E-2</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H40" s="1">
         <f t="shared" si="18"/>
-        <v>1.0702366967014936</v>
+        <v>9.9205050587689997E-2</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="19"/>
-        <v>1.0702419243587045</v>
+        <v>0.11277918677902324</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="20"/>
-        <v>1.0702393105300989</v>
+        <v>0.10598870980937582</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="21"/>
-        <v>1.0702419243587045</v>
+        <v>0.11234966865744919</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H41" s="1">
         <f t="shared" si="18"/>
-        <v>1.0339325251504818</v>
+        <v>0.22653431662677811</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="19"/>
-        <v>1.0339337879361872</v>
+        <v>0.23410529070501651</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="20"/>
-        <v>1.0339331565433345</v>
+        <v>0.23031980366589722</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="21"/>
-        <v>1.0339337879361872</v>
+        <v>0.23398661386054245</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H42" s="11" t="s">
         <v>12</v>
       </c>
@@ -2095,43 +2095,43 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H43" s="1">
         <f>AVERAGE(H32:H41)</f>
-        <v>3.0094496067243637</v>
+        <v>1.2886844004739153</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" ref="I43:K43" si="23">AVERAGE(I32:I41)</f>
-        <v>3.0164201514690729</v>
+        <v>5.0106580867206052</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="23"/>
-        <v>3.012935102479644</v>
+        <v>3.1203399528032669</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="23"/>
-        <v>3.0162721384902036</v>
+        <v>0.42143960251488172</v>
       </c>
       <c r="L43" s="1">
         <f>AVERAGE(L32:L41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
         <v>0</v>
       </c>
@@ -2183,329 +2183,329 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>2.1438700000000002</v>
+        <v>2.1423999999999999</v>
       </c>
       <c r="C48" s="1">
-        <v>2.1415500000000001</v>
+        <v>2.1416400000000002</v>
       </c>
       <c r="D48" s="1">
-        <v>2.14168</v>
+        <v>2.1416900000000001</v>
       </c>
       <c r="E48" s="1">
-        <v>2.1396199999999999</v>
+        <v>2.1409899999999999</v>
       </c>
       <c r="F48" s="1">
-        <v>2.0000399999999998</v>
+        <v>2</v>
       </c>
       <c r="H48" s="1">
         <f>IF(B48="inf","inf",ABS(B48-F48))</f>
-        <v>0.14383000000000035</v>
+        <v>0.14239999999999986</v>
       </c>
       <c r="I48" s="1">
         <f>IF(C48="inf","inf",ABS(C48-F48))</f>
-        <v>0.14151000000000025</v>
+        <v>0.14164000000000021</v>
       </c>
       <c r="J48" s="1">
         <f>IF(D48="inf","inf",ABS(D48-F48))</f>
-        <v>0.14164000000000021</v>
+        <v>0.14169000000000009</v>
       </c>
       <c r="K48" s="1">
         <f>IF(E48="inf","inf",ABS(E48-F48))</f>
-        <v>0.13958000000000004</v>
+        <v>0.14098999999999995</v>
       </c>
       <c r="L48" s="1">
         <f>IF(F48="inf","inf",ABS(F48-F48))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>2.1461899999999998</v>
+        <v>2.1431300000000002</v>
       </c>
       <c r="C49" s="1">
-        <v>2.1414300000000002</v>
+        <v>2.1415999999999999</v>
       </c>
       <c r="D49" s="1">
-        <v>2.1416499999999998</v>
+        <v>2.1416900000000001</v>
       </c>
       <c r="E49" s="1">
-        <v>2.13767</v>
+        <v>2.1402999999999999</v>
       </c>
       <c r="F49" s="1">
-        <v>2.0001699999999998</v>
+        <v>2.0000200000000001</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" ref="H49:H57" si="24">IF(B49="inf","inf",ABS(B49-F49))</f>
-        <v>0.14602000000000004</v>
+        <v>0.14311000000000007</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" ref="I49:I57" si="25">IF(C49="inf","inf",ABS(C49-F49))</f>
-        <v>0.14126000000000039</v>
+        <v>0.14157999999999982</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" ref="J49:J57" si="26">IF(D49="inf","inf",ABS(D49-F49))</f>
-        <v>0.14148000000000005</v>
+        <v>0.14166999999999996</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" ref="K49:K57" si="27">IF(E49="inf","inf",ABS(E49-F49))</f>
-        <v>0.13750000000000018</v>
+        <v>0.14027999999999974</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" ref="L49:L57" si="28">IF(F49="inf","inf",ABS(F49-F49))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
-        <v>1.2E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>2.15123</v>
+        <v>2.1446299999999998</v>
       </c>
       <c r="C50" s="1">
-        <v>2.1412100000000001</v>
+        <v>2.1415099999999998</v>
       </c>
       <c r="D50" s="1">
-        <v>2.1415500000000001</v>
+        <v>2.14167</v>
       </c>
       <c r="E50" s="1">
-        <v>2.1340699999999999</v>
+        <v>2.13896</v>
       </c>
       <c r="F50" s="1">
-        <v>2.0006900000000001</v>
+        <v>2.0000800000000001</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="24"/>
-        <v>0.1505399999999999</v>
+        <v>0.14454999999999973</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="25"/>
-        <v>0.14051999999999998</v>
+        <v>0.14142999999999972</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="26"/>
-        <v>0.14085999999999999</v>
+        <v>0.14158999999999988</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="27"/>
-        <v>0.13337999999999983</v>
+        <v>0.13887999999999989</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
-        <v>2.4E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>2.1627800000000001</v>
+        <v>2.1477900000000001</v>
       </c>
       <c r="C51" s="1">
-        <v>2.1406999999999998</v>
+        <v>2.14134</v>
       </c>
       <c r="D51" s="1">
-        <v>2.1410300000000002</v>
+        <v>2.1415899999999999</v>
       </c>
       <c r="E51" s="1">
-        <v>2.1281500000000002</v>
+        <v>2.13645</v>
       </c>
       <c r="F51" s="1">
-        <v>2.0026999999999999</v>
+        <v>2.0003099999999998</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="24"/>
-        <v>0.16008000000000022</v>
+        <v>0.14748000000000028</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="25"/>
-        <v>0.1379999999999999</v>
+        <v>0.14103000000000021</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="26"/>
-        <v>0.13833000000000029</v>
+        <v>0.14128000000000007</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="27"/>
-        <v>0.12545000000000028</v>
+        <v>0.13614000000000015</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B52" s="1">
-        <v>2.1960500000000001</v>
+        <v>2.1549200000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>2.1406900000000002</v>
+        <v>2.1410200000000001</v>
       </c>
       <c r="D52" s="1">
-        <v>2.1395300000000002</v>
+        <v>2.1414300000000002</v>
       </c>
       <c r="E52" s="1">
-        <v>2.11917</v>
+        <v>2.1319499999999998</v>
       </c>
       <c r="F52" s="1">
-        <v>2.0102500000000001</v>
+        <v>2.00122</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="24"/>
-        <v>0.18579999999999997</v>
+        <v>0.15370000000000017</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="25"/>
-        <v>0.13044000000000011</v>
+        <v>0.13980000000000015</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="26"/>
-        <v>0.12928000000000006</v>
+        <v>0.14021000000000017</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="27"/>
-        <v>0.10891999999999991</v>
+        <v>0.13072999999999979</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
-        <v>9.6000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="B53" s="1">
-        <v>2.2135499999999999E+262</v>
+        <v>2.1726100000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>2.1445099999999999</v>
+        <v>2.1407500000000002</v>
       </c>
       <c r="D53" s="1">
-        <v>2.1481400000000002</v>
+        <v>2.141</v>
       </c>
       <c r="E53" s="1">
-        <v>2.1100699999999999</v>
+        <v>2.12479</v>
       </c>
       <c r="F53" s="1">
-        <v>2.0359699999999998</v>
+        <v>2.0047299999999999</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="24"/>
-        <v>2.2135499999999999E+262</v>
+        <v>0.16788000000000025</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="25"/>
-        <v>0.10854000000000008</v>
+        <v>0.13602000000000025</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="26"/>
-        <v>0.11217000000000033</v>
+        <v>0.13627000000000011</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="27"/>
-        <v>7.4100000000000055E-2</v>
+        <v>0.12006000000000006</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
-        <v>0.192</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2.1487500000000001E+185</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.1417199999999998</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.1406999999999998</v>
       </c>
       <c r="E54" s="1">
-        <v>2.1038800000000002</v>
+        <v>2.1157300000000001</v>
       </c>
       <c r="F54" s="1">
-        <v>2.10033</v>
-      </c>
-      <c r="H54" s="1" t="str">
+        <v>2.0175100000000001</v>
+      </c>
+      <c r="H54" s="1">
         <f t="shared" si="24"/>
-        <v>inf</v>
-      </c>
-      <c r="I54" s="1" t="str">
+        <v>2.1487500000000001E+185</v>
+      </c>
+      <c r="I54" s="1">
         <f t="shared" si="25"/>
-        <v>inf</v>
-      </c>
-      <c r="J54" s="1" t="str">
+        <v>0.12420999999999971</v>
+      </c>
+      <c r="J54" s="1">
         <f t="shared" si="26"/>
-        <v>inf</v>
+        <v>0.12318999999999969</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="27"/>
-        <v>3.5500000000001641E-3</v>
+        <v>9.8219999999999974E-2</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>15</v>
+      <c r="C55" s="1">
+        <v>2.16073</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.1692100000000001</v>
       </c>
       <c r="E55" s="1">
-        <v>2.10006</v>
+        <v>2.1068600000000002</v>
       </c>
       <c r="F55" s="1">
-        <v>2.1348799999999999</v>
+        <v>2.0575299999999999</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="24"/>
         <v>inf</v>
       </c>
-      <c r="I55" s="1" t="str">
+      <c r="I55" s="1">
         <f t="shared" si="25"/>
-        <v>inf</v>
-      </c>
-      <c r="J55" s="1" t="str">
+        <v>0.10320000000000018</v>
+      </c>
+      <c r="J55" s="1">
         <f t="shared" si="26"/>
-        <v>inf</v>
+        <v>0.11168000000000022</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="27"/>
-        <v>3.4819999999999851E-2</v>
+        <v>4.9330000000000318E-2</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>15</v>
@@ -2513,14 +2513,14 @@
       <c r="C56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>15</v>
+      <c r="D56" s="1">
+        <v>5.4651000000000002E+306</v>
       </c>
       <c r="E56" s="1">
-        <v>2.0989599999999999</v>
+        <v>2.1015999999999999</v>
       </c>
       <c r="F56" s="1">
-        <v>2.08887</v>
+        <v>2.1306500000000002</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="24"/>
@@ -2530,22 +2530,22 @@
         <f t="shared" si="25"/>
         <v>inf</v>
       </c>
-      <c r="J56" s="1" t="str">
+      <c r="J56" s="1">
         <f t="shared" si="26"/>
-        <v>inf</v>
+        <v>5.4651000000000002E+306</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="27"/>
-        <v>1.0089999999999932E-2</v>
+        <v>2.9050000000000242E-2</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
-        <v>1.536</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>15</v>
@@ -2557,10 +2557,10 @@
         <v>15</v>
       </c>
       <c r="E57" s="1">
-        <v>2.09836</v>
+        <v>2.0996000000000001</v>
       </c>
       <c r="F57" s="1">
-        <v>2.09911</v>
+        <v>2.0983200000000002</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="24"/>
@@ -2576,14 +2576,14 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="27"/>
-        <v>7.5000000000002842E-4</v>
+        <v>1.2799999999999478E-3</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H58" s="8" t="s">
         <v>11</v>
       </c>
@@ -2592,183 +2592,183 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H59" s="1">
         <f>IF(H48="inf","inf",(H48/ABS(F48)))</f>
-        <v>7.1913561728765604E-2</v>
+        <v>7.119999999999993E-2</v>
       </c>
       <c r="I59" s="1">
         <f>IF(I48="inf","inf",(I48/ABS(F48)))</f>
-        <v>7.0753584928301569E-2</v>
+        <v>7.0820000000000105E-2</v>
       </c>
       <c r="J59" s="1">
         <f>IF(J48="inf","inf",(J48/ABS(F48)))</f>
-        <v>7.0818583628327547E-2</v>
+        <v>7.0845000000000047E-2</v>
       </c>
       <c r="K59" s="1">
         <f>IF(K48="inf","inf",(K48/ABS(F48)))</f>
-        <v>6.9788604227915468E-2</v>
+        <v>7.0494999999999974E-2</v>
       </c>
       <c r="L59" s="1">
         <f>IF(L48="inf","inf",(L48/ABS(F48)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H60" s="1">
         <f t="shared" ref="H60:H68" si="29">IF(H49="inf","inf",(H49/ABS(F49)))</f>
-        <v>7.3003794677452438E-2</v>
+        <v>7.1554284457155462E-2</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" ref="I60:I68" si="30">IF(I49="inf","inf",(I49/ABS(F49)))</f>
-        <v>7.0623996960258575E-2</v>
+        <v>7.0789292107078836E-2</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" ref="J60:J68" si="31">IF(J49="inf","inf",(J49/ABS(F49)))</f>
-        <v>7.0733987611053095E-2</v>
+        <v>7.0834291657083409E-2</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" ref="K60:K68" si="32">IF(K49="inf","inf",(K49/ABS(F49)))</f>
-        <v>6.8744156746676624E-2</v>
+        <v>7.0139298607013789E-2</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" ref="L60:L68" si="33">IF(L49="inf","inf",(L49/ABS(F49)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H61" s="1">
         <f t="shared" si="29"/>
-        <v>7.5244040805921897E-2</v>
+        <v>7.2272109115635239E-2</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="30"/>
-        <v>7.0235768659812348E-2</v>
+        <v>7.0712171513139327E-2</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="31"/>
-        <v>7.040571003003962E-2</v>
+        <v>7.0792168313267415E-2</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="32"/>
-        <v>6.6666999885039574E-2</v>
+        <v>6.9437222511099503E-2</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H62" s="1">
         <f t="shared" si="29"/>
-        <v>7.9932091676237188E-2</v>
+        <v>7.3728572071329088E-2</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="30"/>
-        <v>6.8906975582962951E-2</v>
+        <v>7.0504071868860443E-2</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="31"/>
-        <v>6.9071753133270228E-2</v>
+        <v>7.0629052496863035E-2</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="32"/>
-        <v>6.2640435412193676E-2</v>
+        <v>6.8059450785128386E-2</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H63" s="1">
         <f t="shared" si="29"/>
-        <v>9.2426315134933448E-2</v>
+        <v>7.6803150078452231E-2</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="30"/>
-        <v>6.4887451809476485E-2</v>
+        <v>6.9857386993933776E-2</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="31"/>
-        <v>6.4310409153090442E-2</v>
+        <v>7.0062262020167784E-2</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="32"/>
-        <v>5.418231563238398E-2</v>
+        <v>6.5325151657488825E-2</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H64" s="1">
         <f t="shared" si="29"/>
-        <v>1.0872213244792409E+262</v>
+        <v>8.3741950287570033E-2</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="30"/>
-        <v>5.3311198102133181E-2</v>
+        <v>6.7849535847720271E-2</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="31"/>
-        <v>5.5094132035344495E-2</v>
+        <v>6.7974240920223736E-2</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="32"/>
-        <v>3.6395428223402145E-2</v>
+        <v>5.9888364019094871E-2</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H65" s="1" t="str">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H65" s="1">
         <f t="shared" si="29"/>
-        <v>inf</v>
-      </c>
-      <c r="I65" s="1" t="str">
+        <v>1.0650504830211498E+185</v>
+      </c>
+      <c r="I65" s="1">
         <f t="shared" si="30"/>
-        <v>inf</v>
-      </c>
-      <c r="J65" s="1" t="str">
+        <v>6.1565989759654077E-2</v>
+      </c>
+      <c r="J65" s="1">
         <f t="shared" si="31"/>
-        <v>inf</v>
+        <v>6.1060416057417154E-2</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="32"/>
-        <v>1.6902105859556184E-3</v>
+        <v>4.868377356246064E-2</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
       <c r="H66" s="1" t="str">
         <f t="shared" si="29"/>
         <v>inf</v>
       </c>
-      <c r="I66" s="1" t="str">
+      <c r="I66" s="1">
         <f t="shared" si="30"/>
-        <v>inf</v>
-      </c>
-      <c r="J66" s="1" t="str">
+        <v>5.0157227355129785E-2</v>
+      </c>
+      <c r="J66" s="1">
         <f t="shared" si="31"/>
-        <v>inf</v>
+        <v>5.4278673944000926E-2</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="32"/>
-        <v>1.6310050213595075E-2</v>
+        <v>2.3975349083610115E-2</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
       <c r="H67" s="1" t="str">
         <f t="shared" si="29"/>
         <v>inf</v>
@@ -2777,20 +2777,20 @@
         <f t="shared" si="30"/>
         <v>inf</v>
       </c>
-      <c r="J67" s="1" t="str">
+      <c r="J67" s="1">
         <f t="shared" si="31"/>
-        <v>inf</v>
+        <v>2.5649919038790979E+306</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="32"/>
-        <v>4.8303628277489418E-3</v>
+        <v>1.3634336939431741E-2</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
       <c r="H68" s="1" t="str">
         <f t="shared" si="29"/>
         <v>inf</v>
@@ -2805,14 +2805,14 @@
       </c>
       <c r="K68" s="1">
         <f t="shared" si="32"/>
-        <v>3.5729428186232664E-4</v>
+        <v>6.100118189789678E-4</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
